--- a/data/data-4.xlsx
+++ b/data/data-4.xlsx
@@ -5,17 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\e\2023_10_23\Bump Chart\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\PC-90\src\looker\bump-chart\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26710962-F868-4527-9A42-A28CB5DEF737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9FA01D9-4E1D-417A-945D-2257FF1ABCAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B3572ED2-1760-4B7E-8459-B274F865C245}"/>
+    <workbookView xWindow="3710" yWindow="9190" windowWidth="20010" windowHeight="7490" activeTab="5" xr2:uid="{B3572ED2-1760-4B7E-8459-B274F865C245}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="tab 1" sheetId="2" r:id="rId2"/>
-    <sheet name="tab 2" sheetId="3" r:id="rId3"/>
+    <sheet name="config" sheetId="1" r:id="rId1"/>
+    <sheet name="color" sheetId="6" r:id="rId2"/>
+    <sheet name="tab 1" sheetId="2" r:id="rId3"/>
+    <sheet name="tab 2" sheetId="3" r:id="rId4"/>
+    <sheet name="tab 3" sheetId="4" r:id="rId5"/>
+    <sheet name="tab 4" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="45">
   <si>
     <t>sequence-stage</t>
   </si>
@@ -67,64 +70,112 @@
     <t>Active users</t>
   </si>
   <si>
-    <t>Avg. Active users per Month</t>
-  </si>
-  <si>
-    <t>Media &amp; Entertainment/Movie Lovers</t>
-  </si>
-  <si>
-    <t>Media &amp; Entertainment/TV Lovers</t>
-  </si>
-  <si>
-    <t>News &amp; Politics/Avid News Readers/Entertainment News Enthusiasts</t>
-  </si>
-  <si>
-    <t>Media &amp; Entertainment/Light TV Viewers</t>
-  </si>
-  <si>
-    <t>Technology/Technophiles</t>
-  </si>
-  <si>
-    <t>Lifestyles &amp; Hobbies/Shutterbugs</t>
-  </si>
-  <si>
-    <t>News &amp; Politics/Avid News Readers</t>
-  </si>
-  <si>
-    <t>Sports &amp; Fitness/Sports Fans</t>
-  </si>
-  <si>
-    <t>Travel/Travel Buffs</t>
-  </si>
-  <si>
-    <t>Lifestyles &amp; Hobbies/Pet Lovers</t>
-  </si>
-  <si>
-    <t>Landing Page</t>
-  </si>
-  <si>
-    <t>Users Age &lt; 44</t>
-  </si>
-  <si>
-    <t>Food &amp; Dining/Cooking Enthusiasts/30 Minute Chefs</t>
-  </si>
-  <si>
-    <t>Lifestyles &amp; Hobbies/Family-Focused</t>
-  </si>
-  <si>
-    <t>Shoppers/Bargain Hunters</t>
-  </si>
-  <si>
-    <t>Shoppers/Luxury Shoppers</t>
-  </si>
-  <si>
-    <t>Food &amp; Dining/Fast Food Cravers</t>
-  </si>
-  <si>
-    <t>Lifestyles &amp; Hobbies/Business Professionals</t>
-  </si>
-  <si>
-    <t>Beauty &amp; Wellness/Frequently Visits Salons</t>
+    <t>News &amp; Politics / Avid News Readers / Entertainment News Enthusiasts</t>
+  </si>
+  <si>
+    <t>Technology / Technophiles</t>
+  </si>
+  <si>
+    <t>Media &amp; Entertainment / Movie Lovers</t>
+  </si>
+  <si>
+    <t>Media &amp; Entertainment / Light TV Viewers</t>
+  </si>
+  <si>
+    <t>Travel / Travel Buffs</t>
+  </si>
+  <si>
+    <t>Technology / Mobile Enthusiasts</t>
+  </si>
+  <si>
+    <t>Media &amp; Entertainment / TV Lovers</t>
+  </si>
+  <si>
+    <t>Lifestyles &amp; Hobbies / Shutterbugs</t>
+  </si>
+  <si>
+    <t>News &amp; Politics / Avid News Readers / Avid Political News Readers</t>
+  </si>
+  <si>
+    <t>Banking &amp; Finance / Avid Investors</t>
+  </si>
+  <si>
+    <t>tab 3</t>
+  </si>
+  <si>
+    <t>tab 4</t>
+  </si>
+  <si>
+    <t>Arrival</t>
+  </si>
+  <si>
+    <t>Add to Cart</t>
+  </si>
+  <si>
+    <t>Checkout</t>
+  </si>
+  <si>
+    <t>Purchase</t>
+  </si>
+  <si>
+    <t>#F6B801</t>
+  </si>
+  <si>
+    <t>#F18700</t>
+  </si>
+  <si>
+    <t>#F35B05</t>
+  </si>
+  <si>
+    <t>#D51D25</t>
+  </si>
+  <si>
+    <t>#3D358B</t>
+  </si>
+  <si>
+    <t>#F44786</t>
+  </si>
+  <si>
+    <t>#ED1B76</t>
+  </si>
+  <si>
+    <t>#B1091A</t>
+  </si>
+  <si>
+    <t>#9C27B0</t>
+  </si>
+  <si>
+    <t>#389FE1</t>
+  </si>
+  <si>
+    <t>#1467C3</t>
+  </si>
+  <si>
+    <t>#003DA7</t>
+  </si>
+  <si>
+    <t>#BD6FD2</t>
+  </si>
+  <si>
+    <t>#5CC55E</t>
+  </si>
+  <si>
+    <t>#18A465</t>
+  </si>
+  <si>
+    <t>#147675</t>
+  </si>
+  <si>
+    <t>#A17653</t>
+  </si>
+  <si>
+    <t>#D2A173</t>
+  </si>
+  <si>
+    <t>#607D8B</t>
+  </si>
+  <si>
+    <t>#2E4859</t>
   </si>
 </sst>
 </file>
@@ -514,19 +565,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69EE4E78-3B55-4F9C-87BB-2DF38E066D60}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" customWidth="1"/>
-    <col min="2" max="3" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.54296875" customWidth="1"/>
+    <col min="2" max="3" width="26.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="20.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -536,19 +588,31 @@
       <c r="C1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -558,19 +622,31 @@
       <c r="C3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -578,6 +654,12 @@
         <v>10</v>
       </c>
       <c r="C5" s="3">
+        <v>10</v>
+      </c>
+      <c r="D5" s="3">
+        <v>10</v>
+      </c>
+      <c r="E5" s="3">
         <v>10</v>
       </c>
     </row>
@@ -587,139 +669,113 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6119B0EF-9032-43AE-9E5E-F65BC3776CB2}">
-  <dimension ref="A1:C11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{839B8846-EE99-4E10-AD40-FD7C24BCD99E}">
+  <dimension ref="A1:A20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="53.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="31.42578125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="4">
-        <v>196878</v>
-      </c>
-      <c r="C2" s="4">
-        <v>16407</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="4">
-        <v>187300</v>
-      </c>
-      <c r="C3" s="4">
-        <v>15608</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="4">
-        <v>169047</v>
-      </c>
-      <c r="C4" s="4">
-        <v>14087</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="4">
-        <v>152630</v>
-      </c>
-      <c r="C5" s="4">
-        <v>12719</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="4">
-        <v>149349</v>
-      </c>
-      <c r="C6" s="4">
-        <v>12446</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="4">
-        <v>138222</v>
-      </c>
-      <c r="C7" s="4">
-        <v>11519</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="4">
-        <v>125184</v>
-      </c>
-      <c r="C8" s="4">
-        <v>10432</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="4">
-        <v>123806</v>
-      </c>
-      <c r="C9" s="4">
-        <v>10317</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="4">
-        <v>114500</v>
-      </c>
-      <c r="C10" s="4">
-        <v>9542</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="4">
-        <v>110136</v>
-      </c>
-      <c r="C11" s="4">
-        <v>9178</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -728,139 +784,426 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89838326-9EC1-4B00-B33F-D3ED28346337}">
-  <dimension ref="A1:C11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6119B0EF-9032-43AE-9E5E-F65BC3776CB2}">
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C1" sqref="C1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="75.85546875" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" customWidth="1"/>
-    <col min="3" max="3" width="30.140625" customWidth="1"/>
+    <col min="1" max="1" width="65.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="4">
+        <v>196878</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="4">
+        <v>187300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="4">
+        <v>169047</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="4">
+        <v>152630</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="4">
+        <v>149349</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="4">
+        <v>138222</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="4">
+        <v>125184</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="4">
+        <v>123806</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="4">
+        <v>114500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="4">
+        <v>110136</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89838326-9EC1-4B00-B33F-D3ED28346337}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="75.81640625" customWidth="1"/>
+    <col min="2" max="2" width="23.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="2">
-        <v>2377366</v>
-      </c>
-      <c r="C2" s="2">
-        <v>264152</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>177190.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="2">
+        <v>168570</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="2">
+        <v>152142.30000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2">
+        <v>137367</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>11</v>
       </c>
+      <c r="B6" s="2">
+        <v>134414.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="2">
+        <v>124399.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2">
+        <v>112665.60000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="2">
+        <v>111425.40000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="2">
+        <v>103050</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="2">
+        <v>99122.400000000009</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44A90157-22A3-4BE2-8A8F-73036A5A8CA6}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="75.81640625" customWidth="1"/>
+    <col min="2" max="2" width="23.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2">
+        <v>159471.18000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
       <c r="B3" s="2">
-        <v>2085288</v>
-      </c>
-      <c r="C3" s="2">
-        <v>231699</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>151713</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="2">
-        <v>2084924</v>
-      </c>
-      <c r="C4" s="2">
-        <v>231658</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>136928.07</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2">
-        <v>1951620</v>
-      </c>
-      <c r="C5" s="2">
-        <v>216847</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>123630.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="2">
-        <v>1269990</v>
-      </c>
-      <c r="C6" s="2">
-        <v>141110</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>120972.69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="2">
-        <v>1140948</v>
-      </c>
-      <c r="C7" s="2">
-        <v>126772</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>111959.82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="2">
+        <v>101399.04000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2">
+        <v>100282.86000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>16</v>
       </c>
+      <c r="B10" s="2">
+        <v>92745</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="2">
+        <v>89210.16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6073325-5F67-4EC5-98B0-D7F375E15F28}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="75.81640625" customWidth="1"/>
+    <col min="2" max="2" width="23.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2">
+        <v>143524.06200000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="2">
+        <v>136541.70000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2">
+        <v>123235.26300000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2">
+        <v>111267.27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2">
+        <v>108875.421</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="2">
+        <v>100763.838</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
       <c r="B8" s="2">
-        <v>1069024</v>
-      </c>
-      <c r="C8" s="2">
-        <v>118780</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>91259.136000000013</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2">
+        <v>90254.574000000022</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="2">
+        <v>83470.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="2">
-        <v>1052816</v>
-      </c>
-      <c r="C9" s="2">
-        <v>116980</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="2">
-        <v>1048947</v>
-      </c>
-      <c r="C10" s="2">
-        <v>116550</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
       <c r="B11" s="2">
-        <v>1034564</v>
-      </c>
-      <c r="C11" s="2">
-        <v>114952</v>
+        <v>80289.144</v>
       </c>
     </row>
   </sheetData>
